--- a/2024-10-24/4.Bad-RS3 Bad-RS6.xlsx
+++ b/2024-10-24/4.Bad-RS3 Bad-RS6.xlsx
@@ -693,7 +693,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>90.3</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="D2">
         <v>42</v>
@@ -708,7 +708,7 @@
         <v>805.0599999999999</v>
       </c>
       <c r="H2">
-        <v>-35.18</v>
+        <v>-35.38</v>
       </c>
       <c r="I2">
         <v>41.67</v>
@@ -743,7 +743,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1228.7</v>
+        <v>1219</v>
       </c>
       <c r="D3">
         <v>70</v>
@@ -758,7 +758,7 @@
         <v>19981.67</v>
       </c>
       <c r="H3">
-        <v>-15.2</v>
+        <v>-15.87</v>
       </c>
       <c r="I3">
         <v>104.58</v>
@@ -793,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>190.13</v>
+        <v>189.6</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -808,7 +808,7 @@
         <v>802.51</v>
       </c>
       <c r="H4">
-        <v>-26.31</v>
+        <v>-26.51</v>
       </c>
       <c r="I4">
         <v>41.03</v>
@@ -843,7 +843,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>381.65</v>
+        <v>409</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -858,7 +858,7 @@
         <v>1937.78</v>
       </c>
       <c r="H5">
-        <v>-39.42</v>
+        <v>-35.07</v>
       </c>
       <c r="I5">
         <v>40.88</v>
@@ -893,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>130.62</v>
+        <v>130.8</v>
       </c>
       <c r="D6">
         <v>84</v>
@@ -908,7 +908,7 @@
         <v>2355.23</v>
       </c>
       <c r="H6">
-        <v>-29.96</v>
+        <v>-29.87</v>
       </c>
       <c r="I6">
         <v>155.87</v>
@@ -943,7 +943,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>1019.1</v>
+        <v>1023.7</v>
       </c>
       <c r="D7">
         <v>85</v>
@@ -958,7 +958,7 @@
         <v>23495.07</v>
       </c>
       <c r="H7">
-        <v>-29.71</v>
+        <v>-29.4</v>
       </c>
       <c r="I7">
         <v>152.96</v>
@@ -993,7 +993,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>1165.5</v>
+        <v>1172</v>
       </c>
       <c r="D8">
         <v>43</v>
@@ -1008,7 +1008,7 @@
         <v>16049.1</v>
       </c>
       <c r="H8">
-        <v>-38.56</v>
+        <v>-38.22</v>
       </c>
       <c r="I8">
         <v>69.69</v>
@@ -1043,7 +1043,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>55.25</v>
+        <v>55.5</v>
       </c>
       <c r="D9">
         <v>59</v>
@@ -1058,7 +1058,7 @@
         <v>621.98</v>
       </c>
       <c r="H9">
-        <v>-35.07</v>
+        <v>-34.77</v>
       </c>
       <c r="I9">
         <v>88.90000000000001</v>
@@ -1093,7 +1093,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>251.8</v>
+        <v>257</v>
       </c>
       <c r="D10">
         <v>47</v>
@@ -1108,7 +1108,7 @@
         <v>2944.99</v>
       </c>
       <c r="H10">
-        <v>-23.7</v>
+        <v>-22.12</v>
       </c>
       <c r="I10">
         <v>135.47</v>
@@ -1143,7 +1143,7 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>482.55</v>
+        <v>468</v>
       </c>
       <c r="D11">
         <v>59</v>
@@ -1158,7 +1158,7 @@
         <v>7145.53</v>
       </c>
       <c r="H11">
-        <v>-17.93</v>
+        <v>-20.41</v>
       </c>
       <c r="I11">
         <v>70.72</v>
@@ -1193,7 +1193,7 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>467.15</v>
+        <v>469</v>
       </c>
       <c r="D12">
         <v>65</v>
@@ -1208,7 +1208,7 @@
         <v>39920.25</v>
       </c>
       <c r="H12">
-        <v>-24.7</v>
+        <v>-24.4</v>
       </c>
       <c r="I12">
         <v>94.31</v>
@@ -1243,7 +1243,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>108.79</v>
+        <v>107.5</v>
       </c>
       <c r="D13">
         <v>45</v>
@@ -1258,7 +1258,7 @@
         <v>533.54</v>
       </c>
       <c r="H13">
-        <v>-26.42</v>
+        <v>-27.29</v>
       </c>
       <c r="I13">
         <v>41.85</v>
@@ -1293,7 +1293,7 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>285.3</v>
+        <v>288.45</v>
       </c>
       <c r="D14">
         <v>70</v>
@@ -1308,7 +1308,7 @@
         <v>18144.78</v>
       </c>
       <c r="H14">
-        <v>-21.73</v>
+        <v>-20.86</v>
       </c>
       <c r="I14">
         <v>111.64</v>
@@ -1343,7 +1343,7 @@
         <v>28</v>
       </c>
       <c r="C15">
-        <v>1106.3</v>
+        <v>1076</v>
       </c>
       <c r="D15">
         <v>76</v>
@@ -1358,7 +1358,7 @@
         <v>16426.84</v>
       </c>
       <c r="H15">
-        <v>-23.7</v>
+        <v>-25.79</v>
       </c>
       <c r="I15">
         <v>128.42</v>
@@ -1393,7 +1393,7 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>199.09</v>
+        <v>196</v>
       </c>
       <c r="D16">
         <v>54</v>
@@ -1408,7 +1408,7 @@
         <v>9658.16</v>
       </c>
       <c r="H16">
-        <v>-20.58</v>
+        <v>-21.82</v>
       </c>
       <c r="I16">
         <v>71.84999999999999</v>
@@ -1443,7 +1443,7 @@
         <v>30</v>
       </c>
       <c r="C17">
-        <v>234</v>
+        <v>240.85</v>
       </c>
       <c r="D17">
         <v>21</v>
@@ -1458,7 +1458,7 @@
         <v>1165.98</v>
       </c>
       <c r="H17">
-        <v>-38.74</v>
+        <v>-36.95</v>
       </c>
       <c r="I17">
         <v>44.67</v>
@@ -1493,7 +1493,7 @@
         <v>31</v>
       </c>
       <c r="C18">
-        <v>182.15</v>
+        <v>180.35</v>
       </c>
       <c r="D18">
         <v>53</v>
@@ -1508,7 +1508,7 @@
         <v>12639.49</v>
       </c>
       <c r="H18">
-        <v>-25.59</v>
+        <v>-26.32</v>
       </c>
       <c r="I18">
         <v>62.3</v>
@@ -1543,7 +1543,7 @@
         <v>32</v>
       </c>
       <c r="C19">
-        <v>1660.95</v>
+        <v>1615.9</v>
       </c>
       <c r="D19">
         <v>70</v>
@@ -1558,7 +1558,7 @@
         <v>16702.48</v>
       </c>
       <c r="H19">
-        <v>-23.13</v>
+        <v>-25.22</v>
       </c>
       <c r="I19">
         <v>152.34</v>
@@ -1593,7 +1593,7 @@
         <v>33</v>
       </c>
       <c r="C20">
-        <v>114</v>
+        <v>116.5</v>
       </c>
       <c r="D20">
         <v>36</v>
@@ -1608,7 +1608,7 @@
         <v>2035.91</v>
       </c>
       <c r="H20">
-        <v>-23.49</v>
+        <v>-21.81</v>
       </c>
       <c r="I20">
         <v>42.09</v>
@@ -1643,7 +1643,7 @@
         <v>34</v>
       </c>
       <c r="C21">
-        <v>823.6</v>
+        <v>828</v>
       </c>
       <c r="D21">
         <v>68</v>
@@ -1658,7 +1658,7 @@
         <v>2288.85</v>
       </c>
       <c r="H21">
-        <v>-24.7</v>
+        <v>-24.29</v>
       </c>
       <c r="I21">
         <v>136.28</v>
@@ -1693,7 +1693,7 @@
         <v>35</v>
       </c>
       <c r="C22">
-        <v>338.75</v>
+        <v>343</v>
       </c>
       <c r="D22">
         <v>49</v>
@@ -1708,7 +1708,7 @@
         <v>539.03</v>
       </c>
       <c r="H22">
-        <v>-28.94</v>
+        <v>-28.04</v>
       </c>
       <c r="I22">
         <v>54.53</v>
@@ -1743,7 +1743,7 @@
         <v>36</v>
       </c>
       <c r="C23">
-        <v>1267.95</v>
+        <v>1269.4</v>
       </c>
       <c r="D23">
         <v>59</v>
@@ -1758,7 +1758,7 @@
         <v>15193.2</v>
       </c>
       <c r="H23">
-        <v>-25.19</v>
+        <v>-25.11</v>
       </c>
       <c r="I23">
         <v>94.09999999999999</v>
@@ -1793,7 +1793,7 @@
         <v>37</v>
       </c>
       <c r="C24">
-        <v>182.36</v>
+        <v>179.75</v>
       </c>
       <c r="D24">
         <v>32</v>
@@ -1808,7 +1808,7 @@
         <v>5170.76</v>
       </c>
       <c r="H24">
-        <v>-31.17</v>
+        <v>-32.16</v>
       </c>
       <c r="I24">
         <v>47.32</v>
@@ -1843,7 +1843,7 @@
         <v>38</v>
       </c>
       <c r="C25">
-        <v>306.05</v>
+        <v>307.45</v>
       </c>
       <c r="D25">
         <v>32</v>
@@ -1858,7 +1858,7 @@
         <v>1912.64</v>
       </c>
       <c r="H25">
-        <v>-22.68</v>
+        <v>-22.32</v>
       </c>
       <c r="I25">
         <v>62.22</v>
@@ -1893,7 +1893,7 @@
         <v>39</v>
       </c>
       <c r="C26">
-        <v>592</v>
+        <v>568.7</v>
       </c>
       <c r="D26">
         <v>63</v>
@@ -1908,7 +1908,7 @@
         <v>13973.9</v>
       </c>
       <c r="H26">
-        <v>-28.5</v>
+        <v>-31.32</v>
       </c>
       <c r="I26">
         <v>134.38</v>
@@ -1943,7 +1943,7 @@
         <v>40</v>
       </c>
       <c r="C27">
-        <v>266.55</v>
+        <v>266.25</v>
       </c>
       <c r="D27">
         <v>43</v>
@@ -1958,7 +1958,7 @@
         <v>2148.45</v>
       </c>
       <c r="H27">
-        <v>-22.24</v>
+        <v>-22.33</v>
       </c>
       <c r="I27">
         <v>42.18</v>
@@ -1993,7 +1993,7 @@
         <v>41</v>
       </c>
       <c r="C28">
-        <v>722.95</v>
+        <v>726.35</v>
       </c>
       <c r="D28">
         <v>59</v>
@@ -2008,7 +2008,7 @@
         <v>5459.3</v>
       </c>
       <c r="H28">
-        <v>-22.83</v>
+        <v>-22.46</v>
       </c>
       <c r="I28">
         <v>83.33</v>
@@ -2043,7 +2043,7 @@
         <v>42</v>
       </c>
       <c r="C29">
-        <v>76.03</v>
+        <v>74.2</v>
       </c>
       <c r="D29">
         <v>56</v>
@@ -2058,7 +2058,7 @@
         <v>4094.51</v>
       </c>
       <c r="H29">
-        <v>-26.36</v>
+        <v>-28.14</v>
       </c>
       <c r="I29">
         <v>75.98999999999999</v>
@@ -2093,7 +2093,7 @@
         <v>43</v>
       </c>
       <c r="C30">
-        <v>1263.3</v>
+        <v>1260</v>
       </c>
       <c r="D30">
         <v>50</v>
@@ -2108,7 +2108,7 @@
         <v>19493.6</v>
       </c>
       <c r="H30">
-        <v>-25.69</v>
+        <v>-25.88</v>
       </c>
       <c r="I30">
         <v>53.34</v>
@@ -2143,7 +2143,7 @@
         <v>44</v>
       </c>
       <c r="C31">
-        <v>854.4</v>
+        <v>845</v>
       </c>
       <c r="D31">
         <v>49</v>
@@ -2158,7 +2158,7 @@
         <v>15050.02</v>
       </c>
       <c r="H31">
-        <v>-19.4</v>
+        <v>-20.28</v>
       </c>
       <c r="I31">
         <v>54.71</v>
@@ -2193,7 +2193,7 @@
         <v>45</v>
       </c>
       <c r="C32">
-        <v>27.78</v>
+        <v>26.5</v>
       </c>
       <c r="D32">
         <v>70</v>
@@ -2208,7 +2208,7 @@
         <v>694.76</v>
       </c>
       <c r="H32">
-        <v>-36.06</v>
+        <v>-39.01</v>
       </c>
       <c r="I32">
         <v>116.03</v>
@@ -2243,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="C33">
-        <v>329.05</v>
+        <v>329.4</v>
       </c>
       <c r="D33">
         <v>60</v>
@@ -2258,7 +2258,7 @@
         <v>621.47</v>
       </c>
       <c r="H33">
-        <v>-32.85</v>
+        <v>-32.78</v>
       </c>
       <c r="I33">
         <v>51.52</v>
@@ -2293,7 +2293,7 @@
         <v>47</v>
       </c>
       <c r="C34">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D34">
         <v>53</v>
@@ -2308,7 +2308,7 @@
         <v>39043.51</v>
       </c>
       <c r="H34">
-        <v>-17.89</v>
+        <v>-18.65</v>
       </c>
       <c r="I34">
         <v>49.52</v>
@@ -2343,7 +2343,7 @@
         <v>48</v>
       </c>
       <c r="C35">
-        <v>368.9</v>
+        <v>370.75</v>
       </c>
       <c r="D35">
         <v>47</v>
@@ -2358,7 +2358,7 @@
         <v>638.51</v>
       </c>
       <c r="H35">
-        <v>-19.8</v>
+        <v>-19.4</v>
       </c>
       <c r="I35">
         <v>58.87</v>
@@ -2393,7 +2393,7 @@
         <v>49</v>
       </c>
       <c r="C36">
-        <v>454.45</v>
+        <v>454</v>
       </c>
       <c r="D36">
         <v>50</v>
@@ -2408,7 +2408,7 @@
         <v>5535.23</v>
       </c>
       <c r="H36">
-        <v>-16.23</v>
+        <v>-16.31</v>
       </c>
       <c r="I36">
         <v>46.08</v>
@@ -2443,7 +2443,7 @@
         <v>50</v>
       </c>
       <c r="C37">
-        <v>4006.4</v>
+        <v>3967</v>
       </c>
       <c r="D37">
         <v>59</v>
@@ -2458,7 +2458,7 @@
         <v>36581.04</v>
       </c>
       <c r="H37">
-        <v>-20.5</v>
+        <v>-21.28</v>
       </c>
       <c r="I37">
         <v>74.55</v>
@@ -2493,7 +2493,7 @@
         <v>51</v>
       </c>
       <c r="C38">
-        <v>360.3</v>
+        <v>359.8</v>
       </c>
       <c r="D38">
         <v>53</v>
@@ -2508,7 +2508,7 @@
         <v>63386.47</v>
       </c>
       <c r="H38">
-        <v>-22.98</v>
+        <v>-23.09</v>
       </c>
       <c r="I38">
         <v>70.02</v>
@@ -2543,7 +2543,7 @@
         <v>52</v>
       </c>
       <c r="C39">
-        <v>290.85</v>
+        <v>289.5</v>
       </c>
       <c r="D39">
         <v>63</v>
@@ -2558,7 +2558,7 @@
         <v>61183.56</v>
       </c>
       <c r="H39">
-        <v>-19.42</v>
+        <v>-19.79</v>
       </c>
       <c r="I39">
         <v>79.79000000000001</v>
@@ -2593,7 +2593,7 @@
         <v>53</v>
       </c>
       <c r="C40">
-        <v>3409.65</v>
+        <v>3403.85</v>
       </c>
       <c r="D40">
         <v>72</v>
@@ -2608,7 +2608,7 @@
         <v>94799.63</v>
       </c>
       <c r="H40">
-        <v>-18.27</v>
+        <v>-18.41</v>
       </c>
       <c r="I40">
         <v>106.14</v>
@@ -2643,7 +2643,7 @@
         <v>54</v>
       </c>
       <c r="C41">
-        <v>1407.85</v>
+        <v>1430.05</v>
       </c>
       <c r="D41">
         <v>47</v>
@@ -2658,7 +2658,7 @@
         <v>65415.26</v>
       </c>
       <c r="H41">
-        <v>-21.98</v>
+        <v>-20.75</v>
       </c>
       <c r="I41">
         <v>40.18</v>
@@ -2693,7 +2693,7 @@
         <v>55</v>
       </c>
       <c r="C42">
-        <v>923.2</v>
+        <v>925</v>
       </c>
       <c r="D42">
         <v>50</v>
@@ -2708,7 +2708,7 @@
         <v>93383.96000000001</v>
       </c>
       <c r="H42">
-        <v>-15.84</v>
+        <v>-15.68</v>
       </c>
       <c r="I42">
         <v>57.4</v>
